--- a/data/trans_orig/P21D_6_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74B40CB6-8024-434B-AA39-C0FACF084B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BF46ED0-1142-48E9-A0FD-BC1A1951E620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD0DC6F7-6A23-40B0-B6D0-FFFC940F5167}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E25FA3A9-C6D6-4F6D-B112-B28E5F1FED3E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -831,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF78DAEB-5C34-43F4-953D-E9ACF69FED7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AE5C9E-5B7C-4ED5-B180-EA6BBAFC71B9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_6_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BF46ED0-1142-48E9-A0FD-BC1A1951E620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21AA2E77-164D-48B6-9B09-172536BF2566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E25FA3A9-C6D6-4F6D-B112-B28E5F1FED3E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA2A83CF-9B1B-418D-B8A0-C2C95506A17C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,39%</t>
+    <t>2,61%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,26%</t>
+    <t>1,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,13 +107,13 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,61%</t>
+    <t>97,39%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>98,74%</t>
+    <t>98,65%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -122,106 +122,106 @@
     <t>2,42%</t>
   </si>
   <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>3,16%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>93,97%</t>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>7,77%</t>
+    <t>7,4%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>92,23%</t>
+    <t>92,6%</t>
   </si>
   <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -230,13 +230,13 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>4,61%</t>
+    <t>4,15%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,04%</t>
+    <t>1,96%</t>
   </si>
   <si>
     <t>0,83%</t>
@@ -245,121 +245,127 @@
     <t>0,19%</t>
   </si>
   <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>97,84%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>99,61%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -371,52 +377,46 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
     <t>99,43%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,13%</t>
-  </si>
-  <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,57%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -831,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AE5C9E-5B7C-4ED5-B180-EA6BBAFC71B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537D9955-F8CD-4BBF-9085-33B0177A8654}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1918,10 +1918,10 @@
         <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,7 +1939,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>21</v>
@@ -1951,13 +1951,13 @@
         <v>322394</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M23" s="7">
         <v>713</v>
@@ -1966,13 +1966,13 @@
         <v>633641</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,7 +2028,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2046,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2055,13 +2055,13 @@
         <v>644</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2070,13 +2070,13 @@
         <v>644</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,7 +2109,7 @@
         <v>115</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -2121,10 +2121,10 @@
         <v>838191</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -2198,10 +2198,10 @@
         <v>65</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -2213,10 +2213,10 @@
         <v>119</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="M28" s="7">
         <v>40</v>
@@ -2228,10 +2228,10 @@
         <v>100</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,10 +2249,10 @@
         <v>72</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="H29" s="7">
         <v>2341</v>
@@ -2261,13 +2261,13 @@
         <v>1661821</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="M29" s="7">
         <v>3791</v>
@@ -2276,13 +2276,13 @@
         <v>3169568</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P21D_6_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21AA2E77-164D-48B6-9B09-172536BF2566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64CE8E4F-9434-488F-9F7C-AA044A553182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA2A83CF-9B1B-418D-B8A0-C2C95506A17C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ABF6CDDD-E9FD-490B-B502-EB23A7765B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,61%</t>
+    <t>2,39%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,35%</t>
+    <t>1,26%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,13 +107,13 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,39%</t>
+    <t>97,61%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>98,65%</t>
+    <t>98,74%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -122,10 +122,10 @@
     <t>2,42%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
   </si>
   <si>
     <t>0,86%</t>
@@ -134,31 +134,31 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>2,37%</t>
+    <t>2,27%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>97,63%</t>
+    <t>97,73%</t>
   </si>
   <si>
     <t>99,74%</t>
@@ -167,10 +167,10 @@
     <t>98,43%</t>
   </si>
   <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -179,49 +179,49 @@
     <t>2,07%</t>
   </si>
   <si>
-    <t>7,4%</t>
+    <t>7,77%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>92,6%</t>
+    <t>92,23%</t>
   </si>
   <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -230,13 +230,13 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>4,15%</t>
+    <t>4,61%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>1,96%</t>
+    <t>2,04%</t>
   </si>
   <si>
     <t>0,83%</t>
@@ -245,25 +245,25 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>2,13%</t>
+    <t>2,16%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>95,85%</t>
+    <t>95,39%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>98,04%</t>
+    <t>97,96%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>97,87%</t>
+    <t>97,84%</t>
   </si>
   <si>
     <t>99,81%</t>
@@ -299,13 +299,13 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>1,99%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>1,37%</t>
   </si>
   <si>
     <t>98,92%</t>
@@ -314,13 +314,13 @@
     <t>99,53%</t>
   </si>
   <si>
-    <t>97,38%</t>
+    <t>98,01%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,87%</t>
+    <t>98,63%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -332,19 +332,16 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
+    <t>2,15%</t>
   </si>
   <si>
     <t>99,33%</t>
@@ -353,19 +350,16 @@
     <t>98,14%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>97,85%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -377,46 +371,52 @@
     <t>0,15%</t>
   </si>
   <si>
+    <t>0,87%</t>
+  </si>
+  <si>
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
     <t>99,43%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
+    <t>99,13%</t>
+  </si>
+  <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>0,27%</t>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>99,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -831,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537D9955-F8CD-4BBF-9085-33B0177A8654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8460D0F-3C83-4F3B-BB3E-335429442764}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1918,10 +1918,10 @@
         <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,7 +1939,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>21</v>
@@ -1951,13 +1951,13 @@
         <v>322394</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M23" s="7">
         <v>713</v>
@@ -1966,13 +1966,13 @@
         <v>633641</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,7 +2028,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2046,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2055,13 +2055,13 @@
         <v>644</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2070,13 +2070,13 @@
         <v>644</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,7 +2109,7 @@
         <v>115</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -2121,10 +2121,10 @@
         <v>838191</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -2198,10 +2198,10 @@
         <v>65</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -2213,10 +2213,10 @@
         <v>119</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M28" s="7">
         <v>40</v>
@@ -2228,10 +2228,10 @@
         <v>100</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,10 +2249,10 @@
         <v>72</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="H29" s="7">
         <v>2341</v>
@@ -2261,13 +2261,13 @@
         <v>1661821</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="M29" s="7">
         <v>3791</v>
@@ -2276,13 +2276,13 @@
         <v>3169568</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P21D_6_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64CE8E4F-9434-488F-9F7C-AA044A553182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D047F809-74B4-459E-B82B-87BF89BEA5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ABF6CDDD-E9FD-490B-B502-EB23A7765B7C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C23C6BC3-78CA-443C-8776-8FAE9A72A9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="132">
   <si>
     <t>Población que, necesitando atención fisioterapéutica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -80,16 +80,16 @@
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,319 +104,331 @@
     <t>100%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>Cadiz</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -831,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8460D0F-3C83-4F3B-BB3E-335429442764}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DC4298-E73F-4DEA-971D-6205DB04052E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -967,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>962</v>
+        <v>1005</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -982,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>962</v>
+        <v>1005</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1003,7 +1015,7 @@
         <v>153</v>
       </c>
       <c r="D5" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1018,7 +1030,7 @@
         <v>231</v>
       </c>
       <c r="I5" s="7">
-        <v>116561</v>
+        <v>125312</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1033,7 +1045,7 @@
         <v>384</v>
       </c>
       <c r="N5" s="7">
-        <v>242053</v>
+        <v>279578</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1054,7 +1066,7 @@
         <v>153</v>
       </c>
       <c r="D6" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -1069,7 +1081,7 @@
         <v>233</v>
       </c>
       <c r="I6" s="7">
-        <v>117523</v>
+        <v>126317</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>21</v>
@@ -1084,7 +1096,7 @@
         <v>386</v>
       </c>
       <c r="N6" s="7">
-        <v>243015</v>
+        <v>280583</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>21</v>
@@ -1107,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>5086</v>
+        <v>4945</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1122,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2188</v>
+        <v>2017</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1137,7 +1149,7 @@
         <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>7273</v>
+        <v>6962</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -1158,7 +1170,7 @@
         <v>155</v>
       </c>
       <c r="D8" s="7">
-        <v>205084</v>
+        <v>205299</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1173,7 +1185,7 @@
         <v>320</v>
       </c>
       <c r="I8" s="7">
-        <v>251785</v>
+        <v>234116</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1188,7 +1200,7 @@
         <v>475</v>
       </c>
       <c r="N8" s="7">
-        <v>456870</v>
+        <v>439415</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -1209,7 +1221,7 @@
         <v>159</v>
       </c>
       <c r="D9" s="7">
-        <v>210170</v>
+        <v>210244</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -1224,7 +1236,7 @@
         <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>253973</v>
+        <v>236133</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -1239,7 +1251,7 @@
         <v>483</v>
       </c>
       <c r="N9" s="7">
-        <v>464143</v>
+        <v>446377</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -1262,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2024</v>
+        <v>1968</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -1277,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>9820</v>
+        <v>9114</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>48</v>
@@ -1292,7 +1304,7 @@
         <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>11844</v>
+        <v>11082</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>51</v>
@@ -1313,7 +1325,7 @@
         <v>111</v>
       </c>
       <c r="D11" s="7">
-        <v>95640</v>
+        <v>92944</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>54</v>
@@ -1328,7 +1340,7 @@
         <v>208</v>
       </c>
       <c r="I11" s="7">
-        <v>145446</v>
+        <v>136427</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>56</v>
@@ -1343,7 +1355,7 @@
         <v>319</v>
       </c>
       <c r="N11" s="7">
-        <v>241086</v>
+        <v>229371</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>59</v>
@@ -1364,7 +1376,7 @@
         <v>113</v>
       </c>
       <c r="D12" s="7">
-        <v>97664</v>
+        <v>94912</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -1379,7 +1391,7 @@
         <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>155266</v>
+        <v>145541</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -1394,7 +1406,7 @@
         <v>336</v>
       </c>
       <c r="N12" s="7">
-        <v>252930</v>
+        <v>240453</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -1417,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1746</v>
+        <v>1684</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>63</v>
@@ -1432,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1193</v>
+        <v>1108</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>65</v>
@@ -1447,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>2939</v>
+        <v>2792</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>67</v>
@@ -1468,7 +1480,7 @@
         <v>129</v>
       </c>
       <c r="D14" s="7">
-        <v>145404</v>
+        <v>139693</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>70</v>
@@ -1483,7 +1495,7 @@
         <v>276</v>
       </c>
       <c r="I14" s="7">
-        <v>205968</v>
+        <v>245452</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>72</v>
@@ -1498,7 +1510,7 @@
         <v>405</v>
       </c>
       <c r="N14" s="7">
-        <v>351372</v>
+        <v>385145</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>74</v>
@@ -1519,7 +1531,7 @@
         <v>131</v>
       </c>
       <c r="D15" s="7">
-        <v>147150</v>
+        <v>141377</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -1534,7 +1546,7 @@
         <v>278</v>
       </c>
       <c r="I15" s="7">
-        <v>207161</v>
+        <v>246560</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -1549,7 +1561,7 @@
         <v>409</v>
       </c>
       <c r="N15" s="7">
-        <v>354311</v>
+        <v>387937</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -1623,7 +1635,7 @@
         <v>108</v>
       </c>
       <c r="D17" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>19</v>
@@ -1638,7 +1650,7 @@
         <v>163</v>
       </c>
       <c r="I17" s="7">
-        <v>79356</v>
+        <v>71362</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>19</v>
@@ -1653,7 +1665,7 @@
         <v>271</v>
       </c>
       <c r="N17" s="7">
-        <v>157398</v>
+        <v>142066</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>19</v>
@@ -1674,7 +1686,7 @@
         <v>108</v>
       </c>
       <c r="D18" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
@@ -1689,7 +1701,7 @@
         <v>163</v>
       </c>
       <c r="I18" s="7">
-        <v>79356</v>
+        <v>71362</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>21</v>
@@ -1704,7 +1716,7 @@
         <v>271</v>
       </c>
       <c r="N18" s="7">
-        <v>157398</v>
+        <v>142066</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
@@ -1742,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>560</v>
+        <v>515</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>86</v>
@@ -1757,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>560</v>
+        <v>515</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>88</v>
@@ -1778,7 +1790,7 @@
         <v>177</v>
       </c>
       <c r="D20" s="7">
-        <v>130109</v>
+        <v>125594</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>19</v>
@@ -1793,7 +1805,7 @@
         <v>199</v>
       </c>
       <c r="I20" s="7">
-        <v>118850</v>
+        <v>110437</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>91</v>
@@ -1808,7 +1820,7 @@
         <v>376</v>
       </c>
       <c r="N20" s="7">
-        <v>248958</v>
+        <v>236031</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>93</v>
@@ -1829,7 +1841,7 @@
         <v>177</v>
       </c>
       <c r="D21" s="7">
-        <v>130109</v>
+        <v>125594</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -1844,7 +1856,7 @@
         <v>200</v>
       </c>
       <c r="I21" s="7">
-        <v>119410</v>
+        <v>110952</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -1859,7 +1871,7 @@
         <v>377</v>
       </c>
       <c r="N21" s="7">
-        <v>249518</v>
+        <v>236546</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -1897,28 +1909,28 @@
         <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>6097</v>
+        <v>5612</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>97</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>6097</v>
+        <v>5612</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>101</v>
@@ -1933,7 +1945,7 @@
         <v>284</v>
       </c>
       <c r="D23" s="7">
-        <v>311246</v>
+        <v>310956</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>19</v>
@@ -1948,7 +1960,7 @@
         <v>429</v>
       </c>
       <c r="I23" s="7">
-        <v>322394</v>
+        <v>301242</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>103</v>
@@ -1957,22 +1969,22 @@
         <v>104</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7">
         <v>713</v>
       </c>
       <c r="N23" s="7">
-        <v>633641</v>
+        <v>612198</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,7 +1996,7 @@
         <v>284</v>
       </c>
       <c r="D24" s="7">
-        <v>311246</v>
+        <v>310956</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
@@ -1999,7 +2011,7 @@
         <v>436</v>
       </c>
       <c r="I24" s="7">
-        <v>328491</v>
+        <v>306854</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>21</v>
@@ -2014,7 +2026,7 @@
         <v>720</v>
       </c>
       <c r="N24" s="7">
-        <v>639738</v>
+        <v>617810</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>21</v>
@@ -2052,31 +2064,31 @@
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>644</v>
+        <v>550</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>644</v>
+        <v>550</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2100,13 @@
         <v>333</v>
       </c>
       <c r="D26" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>21</v>
@@ -2103,13 +2115,13 @@
         <v>515</v>
       </c>
       <c r="I26" s="7">
-        <v>421461</v>
+        <v>348399</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -2118,13 +2130,13 @@
         <v>848</v>
       </c>
       <c r="N26" s="7">
-        <v>838191</v>
+        <v>902314</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -2139,7 +2151,7 @@
         <v>333</v>
       </c>
       <c r="D27" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>21</v>
@@ -2154,7 +2166,7 @@
         <v>516</v>
       </c>
       <c r="I27" s="7">
-        <v>422105</v>
+        <v>348949</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>21</v>
@@ -2169,7 +2181,7 @@
         <v>849</v>
       </c>
       <c r="N27" s="7">
-        <v>838835</v>
+        <v>902864</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>21</v>
@@ -2192,46 +2204,46 @@
         <v>8</v>
       </c>
       <c r="D28" s="7">
-        <v>8856</v>
+        <v>8597</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
       </c>
       <c r="I28" s="7">
-        <v>21465</v>
+        <v>19921</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="M28" s="7">
         <v>40</v>
       </c>
       <c r="N28" s="7">
-        <v>30320</v>
+        <v>28518</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,46 +2255,46 @@
         <v>1450</v>
       </c>
       <c r="D29" s="7">
-        <v>1507746</v>
+        <v>1653372</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="H29" s="7">
         <v>2341</v>
       </c>
       <c r="I29" s="7">
-        <v>1661821</v>
+        <v>1572746</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="M29" s="7">
         <v>3791</v>
       </c>
       <c r="N29" s="7">
-        <v>3169568</v>
+        <v>3226118</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,7 +2306,7 @@
         <v>1458</v>
       </c>
       <c r="D30" s="7">
-        <v>1516602</v>
+        <v>1661969</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>21</v>
@@ -2309,7 +2321,7 @@
         <v>2373</v>
       </c>
       <c r="I30" s="7">
-        <v>1683286</v>
+        <v>1592667</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>21</v>
@@ -2324,7 +2336,7 @@
         <v>3831</v>
       </c>
       <c r="N30" s="7">
-        <v>3199888</v>
+        <v>3254636</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>21</v>
@@ -2338,7 +2350,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
